--- a/biology/Médecine/1100_en_santé_et_médecine/1100_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1100_en_santé_et_médecine/1100_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1100_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1100_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1100 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1100_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1100_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation par Archimbaud Le Blanc de l'hospice d'Aigueperse, en Auvergne, qui sera transformé en 1288 en chapitre séculier par Hugues d'Arcy, évêque d'Autun[1],[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation par Archimbaud Le Blanc de l'hospice d'Aigueperse, en Auvergne, qui sera transformé en 1288 en chapitre séculier par Hugues d'Arcy, évêque d'Autun,.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1100_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1100_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,12 +555,14 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Compilation de préceptes de l'école de Salerne longtemps attribuée au seul Jean le Milanais, le Regimen scholae Salernitanae est présenté à Robert Courteheuse venu se faire soigner d'une blessure reçue en Palestine[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Compilation de préceptes de l'école de Salerne longtemps attribuée au seul Jean le Milanais, le Regimen scholae Salernitanae est présenté à Robert Courteheuse venu se faire soigner d'une blessure reçue en Palestine.
 Vers 1100 :
-Une équipe de médecins de Salerne compose le Grand Antidotaire (Antidotarium magnum), ouvrage « qui compte plus de mille formules qui sont empruntées aussi bien à la pharmacopée gréco-arabe qu'à la Mönschsmedizin [« médecine monastique »] du Haut Moyen Âge » et qui sera abrégé au XIIIe siècle sous le titre et l'attribution d'Antidotaire de Nicolas (Antidotarium Nicolaï[4]).
-Archimatthaeus rédige son traité De adventu medici ad ægrotum, « sur la manière dont le médecin doit se comporter auprès des malades[5],[6] ».</t>
+Une équipe de médecins de Salerne compose le Grand Antidotaire (Antidotarium magnum), ouvrage « qui compte plus de mille formules qui sont empruntées aussi bien à la pharmacopée gréco-arabe qu'à la Mönschsmedizin [« médecine monastique »] du Haut Moyen Âge » et qui sera abrégé au XIIIe siècle sous le titre et l'attribution d'Antidotaire de Nicolas (Antidotarium Nicolaï).
+Archimatthaeus rédige son traité De adventu medici ad ægrotum, « sur la manière dont le médecin doit se comporter auprès des malades, ».</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1100_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1100_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,13 +590,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Fl. Hildegaire, médecin, cité dans une charte de l'abbaye Saint-Serge d'Angers[7].
-Vers 1100 :  fl. Engebaud, médecin, chanoine du Mans, propriétaire à Lucé[7].
-1045-1100 : fl. Jean Surdus, médecin d'Henri Ier, roi des Francs[8].
-1080-1100 : fl. Jean, médecin dont le frère est cité dans une charte de l'abbaye Saint-Vincent du Mans[7].
-1050-1100 : entre ces deux dates, Trotula († 1097), Garioponto (it) (fl. 1020-1050) et Constantin l'Africain (1020-1087) enseignent à Salerne[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fl. Hildegaire, médecin, cité dans une charte de l'abbaye Saint-Serge d'Angers.
+Vers 1100 :  fl. Engebaud, médecin, chanoine du Mans, propriétaire à Lucé.
+1045-1100 : fl. Jean Surdus, médecin d'Henri Ier, roi des Francs.
+1080-1100 : fl. Jean, médecin dont le frère est cité dans une charte de l'abbaye Saint-Vincent du Mans.
+1050-1100 : entre ces deux dates, Trotula († 1097), Garioponto (it) (fl. 1020-1050) et Constantin l'Africain (1020-1087) enseignent à Salerne.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1100_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1100_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,11 +626,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vers 1100 :
-Al Idrissi (mort vers 1165 ou en 1175-1176), géographe, botaniste et médecin arabe, auteur  d'une importante pharmacopée mentionnée sous divers titres, dont celui de Kitāb al-Jāmiʿ li-ṣifāt aštāt al-nabāt wa ḍurūb anwāʿ al-mufradāt (« Livre des propriétés de diverses plantes et remèdes variés »), où les noms sont donnés en plusieurs langues, dont le syriaque, le grec, le persan, le hindi, le latin ou le berbère[10].
-Hugues de Fouilloy (mort en 1173), auteur d'un ouvrage sur l’étiologie et le traitement des troubles mentaux, le De medicina animae (« De la médecine de l'âme »), rédigé entre 1125 et 1132, « texte remarquable, bien qu'inachevé[11] ».</t>
+Al Idrissi (mort vers 1165 ou en 1175-1176), géographe, botaniste et médecin arabe, auteur  d'une importante pharmacopée mentionnée sous divers titres, dont celui de Kitāb al-Jāmiʿ li-ṣifāt aštāt al-nabāt wa ḍurūb anwāʿ al-mufradāt (« Livre des propriétés de diverses plantes et remèdes variés »), où les noms sont donnés en plusieurs langues, dont le syriaque, le grec, le persan, le hindi, le latin ou le berbère.
+Hugues de Fouilloy (mort en 1173), auteur d'un ouvrage sur l’étiologie et le traitement des troubles mentaux, le De medicina animae (« De la médecine de l'âme »), rédigé entre 1125 et 1132, « texte remarquable, bien qu'inachevé ».</t>
         </is>
       </c>
     </row>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1100_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1100_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,9 +660,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ibn Jazla (né au début du XIe siècle), médecin chrétien de Bagdad converti à l'islam et dont les deux œuvres les plus importantes sont le Taqwim al-abdan, manuel illustré de thérapeutique, et le Minhah al-Bayan, traité de pharmacie et de diététique[12].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Ibn Jazla (né au début du XIe siècle), médecin chrétien de Bagdad converti à l'islam et dont les deux œuvres les plus importantes sont le Taqwim al-abdan, manuel illustré de thérapeutique, et le Minhah al-Bayan, traité de pharmacie et de diététique.</t>
         </is>
       </c>
     </row>
